--- a/procesador/Listado de proyectos - 60 años dpto antropología .xlsx
+++ b/procesador/Listado de proyectos - 60 años dpto antropología .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_ulloag_uniandes_edu_co/Documents/60 años departamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A4F87C-0A4D-4C37-BAB5-B2C8BC45D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90190777-B925-4DCA-877F-C4E7FA4D137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="33960" r:id="rId11"/>
+    <pivotCache cacheId="35076" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5573,7 +5573,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4570351-E376-4474-B0C8-4F00FB638DE4}" name="Tabla dinámica1" cacheId="33960" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4570351-E376-4474-B0C8-4F00FB638DE4}" name="Tabla dinámica1" cacheId="35076" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A2:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
